--- a/FurryMine/Assets/Datas/MinerTable.xlsx
+++ b/FurryMine/Assets/Datas/MinerTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IndieGame\ProjectMine\Unity\FurryMine\Assets\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3F21CC5-8779-4622-A8CE-678CF89D0C04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6FBF55-6AA0-4288-857F-F1C25682546E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{83B91984-A4E6-4153-B4CE-7E11D393F3FE}"/>
+    <workbookView xWindow="3525" yWindow="2460" windowWidth="21600" windowHeight="11385" xr2:uid="{83B91984-A4E6-4153-B4CE-7E11D393F3FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Table" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,22 @@
   </si>
   <si>
     <t>늑대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도마뱀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도마뱀광부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{552E4C72-12EA-4B57-8C9D-34B534935AB9}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -477,11 +493,11 @@
     <col min="5" max="5" width="13.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.25" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -504,13 +520,16 @@
         <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -533,13 +552,16 @@
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -562,10 +584,45 @@
         <v>2</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
